--- a/exel/excel/Практика 4 Работа с текстом(АвтоматическиВосстановлено).xlsx
+++ b/exel/excel/Практика 4 Работа с текстом(АвтоматическиВосстановлено).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\2cours\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sedof\Documents\vscode\ITiABD-PM22-7-Nikolay-Sedov\exel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FB8CE-C2F7-4ED0-9E43-8F50B227B1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61913B5D-EAD6-4C74-8AC6-712DED5EADE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -351,7 +353,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -886,12 +888,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>995405</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4197349" cy="2270125"/>
+    <xdr:ext cx="284376" cy="0"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4">
@@ -904,9 +906,9 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5984875" y="0"/>
-          <a:ext cx="4197349" cy="2270125"/>
+        <a:xfrm flipV="1">
+          <a:off x="12931689" y="0"/>
+          <a:ext cx="284376" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1834,76 +1836,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:A18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>777058885</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7770588857</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7770588858</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7440587745</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7170587227</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>7170587225</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>7170587228</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7080588877</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>7080587111</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>7870588775</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>7870588778</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>7170588078</v>
       </c>
@@ -1925,16 +1927,16 @@
       <selection activeCell="E7" sqref="E7:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1951,7 +1953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>777058885</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7770588857</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7770588858</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7080587720</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7440587745</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>7080587722</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7080587755</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7080587758</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7170587757</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>7170587758</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4078587777</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7170587227</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>7170587225</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>7170587228</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4077587747</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>7080587777</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7080587778</v>
       </c>
@@ -2162,7 +2164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>7080587777</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7080587787</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7080587787</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7080587775</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7080587407</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>7080587408</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7080587411</v>
       </c>
@@ -2239,7 +2241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7080587412</v>
       </c>
@@ -2250,7 +2252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>7080587414</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>7080587415</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7080587427</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7080587424</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7080587447</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>7120587457</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>7080587457</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>7080588877</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>7080587111</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>7770587781</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>7080587477</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7080587480</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7120587477</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>7120587504</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7120587507</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>4088587448</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>4088587448</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>7080587515</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>7080587518</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>7080587517</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>7080587518</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>7080587528</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>7080587750</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>7120587500</v>
       </c>
@@ -2514,7 +2516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>7170587547</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>4077587551</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>7080587588</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>7120587811</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>7080587828</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>7080587847</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>7080587855</v>
       </c>
@@ -2591,7 +2593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>7080587887</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>7080587884</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>7120587888</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>7080587877</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>4055587707</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>7080587844</v>
       </c>
@@ -2657,7 +2659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>7080587714</v>
       </c>
@@ -2668,7 +2670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7440587771</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>7080587777</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>7080587777</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7870588775</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>7870588778</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4078587757</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>4078587758</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>7120587777</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>4078587777</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>7080587854</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>7170588078</v>
       </c>
@@ -2806,17 +2808,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2896,7 +2898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -2929,34 +2931,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C7565-BF6F-4DB2-BF6C-443BFBD5015B}">
   <dimension ref="B15:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="74" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
@@ -3156,7 +3158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
